--- a/data/trans_camb/P31_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P31_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +526,18 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>-1,42</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 7,79</t>
+          <t>-4,42; 15,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 8,94</t>
+          <t>1,99; 23,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 9,06</t>
+          <t>-8,66; 14,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 15,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 10,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 10,49</t>
+          <t>-9,45; 10,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 8,6</t>
+          <t>-6,56; 12,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 6,87</t>
+          <t>-16,56; 6,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 7,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 10,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 14,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 7,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,11%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 36,05</t>
+          <t>-19,47; 135,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 40,41</t>
+          <t>7,7; 209,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,48; 41,22</t>
+          <t>-40,79; 117,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 54,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 35,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 37,63</t>
+          <t>-22,97; 36,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 30,67</t>
+          <t>-16,2; 44,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 24,44</t>
+          <t>-43,43; 23,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 25,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 50,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 65,53</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,28; 31,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 9,2</t>
+          <t>-7,31; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 5,56</t>
+          <t>-10,35; 4,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 3,48</t>
+          <t>-12,16; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 16,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 8,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 9,94</t>
+          <t>2,06; 14,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,12</t>
+          <t>-3,21; 8,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,53</t>
+          <t>-5,02; 7,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 9,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 4,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 4,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 62,99</t>
+          <t>-28,77; 50,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 37,49</t>
+          <t>-41,08; 27,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 23,74</t>
+          <t>-47,74; 20,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,06; 80,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 45,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 48,87</t>
+          <t>7,12; 67,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 62,72</t>
+          <t>-12,29; 43,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 29,86</t>
+          <t>-18,04; 38,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 26,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 49,06</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,52; 24,43</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 21,3</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 9,08</t>
+          <t>-3,99; 9,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 7,31</t>
+          <t>-5,81; 7,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 4,77</t>
+          <t>-8,84; 4,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 9,99</t>
+          <t>0,32; 12,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,4</t>
+          <t>-5,44; 5,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,37</t>
+          <t>-6,39; 5,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 10,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 5,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 3,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-6,72%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 72,54</t>
+          <t>-19,94; 87,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 58,26</t>
+          <t>-30,76; 67,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 36,98</t>
+          <t>-46,29; 43,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,37; 79,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 40,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 57,04</t>
+          <t>1,21; 72,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 58,71</t>
+          <t>-21,23; 32,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 34,2</t>
+          <t>-26,47; 32,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 35,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 64,19</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-17,73; 34,45</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-30,8; 19,32</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 6,25</t>
+          <t>-4,69; 10,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,52</t>
+          <t>-13,06; -0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,86</t>
+          <t>6,09; 19,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,59</t>
+          <t>-8,41; 4,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 11,94</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; -0,19</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>-31,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>-9,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-20,23%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 38,08</t>
+          <t>-20,24; 57,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 25,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 22,09</t>
+          <t>-54,05; -2,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,1; 56,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 28,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 38,6</t>
+          <t>21,72; 83,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,45; 40,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 22,1</t>
+          <t>-30,52; 17,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 23,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 56,45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-36,16; -0,44</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 5,66</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 4,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; -0,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 11,55</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 5,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 2,71</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 7,89</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 4,23</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 0,56</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-19,89%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-10,16%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,09; 34,19</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 24,85</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,75; -2,11</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>17,88; 49,75</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 25,73</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 11,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 38,04</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 20,63</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 2,63</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
